--- a/2-Data/Raw/Yields/Marsden 2017 Hay.xlsx
+++ b/2-Data/Raw/Yields/Marsden 2017 Hay.xlsx
@@ -1,19 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_28D1218194132B8808F9E71899ABD7673D8DC248" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE3FE09-3611-2C4C-817E-C38F9014E1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2480" windowWidth="22260" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -110,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,7 +160,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +176,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,47 +258,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -290,42 +307,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -338,6 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,48 +631,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:L36"/>
+  <dimension ref="A3:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="18.600000000000001">
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="33"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="E6" s="34" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="31"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:12" ht="24.6" thickBot="1">
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -694,7 +706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -727,8 +739,12 @@
         <f>100-K8/J8*100</f>
         <v>18.723017496023644</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8" s="34">
+        <f>((100 - L8)/100)*H8</f>
+        <v>1.8298015403197836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>14</v>
       </c>
@@ -765,8 +781,12 @@
         <f t="shared" ref="L9:L11" si="3">100-K9/J9*100</f>
         <v>17.400000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9" s="34">
+        <f t="shared" ref="N9:N11" si="4">((100 - L9)/100)*H9</f>
+        <v>1.7704657894736839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
@@ -803,8 +823,12 @@
         <f t="shared" si="3"/>
         <v>19.700357781753127</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10" s="34">
+        <f t="shared" si="4"/>
+        <v>1.9430400268336314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
@@ -812,7 +836,7 @@
         <v>42893</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="21">
         <v>4</v>
       </c>
@@ -841,48 +865,52 @@
         <f t="shared" si="3"/>
         <v>20.5604883462819</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="24"/>
+      <c r="N11" s="34">
+        <f t="shared" si="4"/>
+        <v>1.9159555902798062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f>AVERAGE(G8:G11)</f>
         <v>4613.1578947368425</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="27">
         <f>AVERAGE(H8:H11)</f>
         <v>2.3065789473684211</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="27">
         <f>AVERAGE(I8:I11)</f>
         <v>1.8648157367267264</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="30"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="30"/>
-      <c r="E14" s="34" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="E14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" ht="24.6" thickBot="1">
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -916,7 +944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -950,7 +978,7 @@
         <v>12.012369172216935</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>14</v>
       </c>
@@ -966,15 +994,15 @@
         <v>1221</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" ref="G17:G19" si="4">F17/0.38</f>
+        <f t="shared" ref="G17:G19" si="5">F17/0.38</f>
         <v>3213.1578947368421</v>
       </c>
       <c r="H17" s="14">
-        <f t="shared" ref="H17:H19" si="5">G17/2000</f>
+        <f t="shared" ref="H17:H19" si="6">G17/2000</f>
         <v>1.6065789473684211</v>
       </c>
       <c r="I17" s="15">
-        <f t="shared" ref="I17:I19" si="6">H17-(H17*L17/100)</f>
+        <f t="shared" ref="I17:I19" si="7">H17-(H17*L17/100)</f>
         <v>1.3970723684210529</v>
       </c>
       <c r="J17" s="16">
@@ -984,11 +1012,11 @@
         <v>386.1</v>
       </c>
       <c r="L17" s="18">
-        <f t="shared" ref="L17:L19" si="7">100-K17/J17*100</f>
+        <f t="shared" ref="L17:L19" si="8">100-K17/J17*100</f>
         <v>13.040540540540533</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
@@ -1004,15 +1032,15 @@
         <v>1152</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3031.5789473684208</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5157894736842104</v>
       </c>
       <c r="I18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3503472434868882</v>
       </c>
       <c r="J18" s="16">
@@ -1022,11 +1050,11 @@
         <v>382.8</v>
       </c>
       <c r="L18" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.91459157551779</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1062,7 @@
         <v>42923</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="21">
         <v>4</v>
       </c>
@@ -1042,15 +1070,15 @@
         <v>1152</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3031.5789473684208</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5157894736842104</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3492078318663552</v>
       </c>
       <c r="J19" s="16">
@@ -1060,51 +1088,51 @@
         <v>391.2</v>
       </c>
       <c r="L19" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.989761092150175</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="26">
         <f>AVERAGE(G16:G19)</f>
         <v>3025.6578947368416</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="27">
         <f>AVERAGE(H16:H19)</f>
         <v>1.5128289473684209</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="27">
         <f>AVERAGE(I16:I19)</f>
         <v>1.3350078988022549</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="30"/>
-      <c r="E22" s="34" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="28"/>
+      <c r="E22" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="1:12" ht="24.6" thickBot="1">
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+    </row>
+    <row r="23" spans="1:12" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1138,7 +1166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1172,7 +1200,7 @@
         <v>19.416610999777333</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>14</v>
       </c>
@@ -1188,15 +1216,15 @@
         <v>591</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" ref="G25:G27" si="8">F25/0.38</f>
+        <f t="shared" ref="G25:G27" si="9">F25/0.38</f>
         <v>1555.2631578947369</v>
       </c>
       <c r="H25" s="14">
-        <f t="shared" ref="H25:H27" si="9">G25/2000</f>
+        <f t="shared" ref="H25:H27" si="10">G25/2000</f>
         <v>0.77763157894736845</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" ref="I25:I27" si="10">H25-(H25*L25/100)</f>
+        <f t="shared" ref="I25:I27" si="11">H25-(H25*L25/100)</f>
         <v>0.60700348561717754</v>
       </c>
       <c r="J25" s="16">
@@ -1206,11 +1234,11 @@
         <v>331.2</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" ref="L25:L27" si="11">100-K25/J25*100</f>
+        <f t="shared" ref="L25:L27" si="12">100-K25/J25*100</f>
         <v>21.942022154136225</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>22</v>
       </c>
@@ -1226,15 +1254,15 @@
         <v>584</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1536.8421052631579</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.768421052631579</v>
       </c>
       <c r="I26" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.6186648730452331</v>
       </c>
       <c r="J26" s="16">
@@ -1244,11 +1272,11 @@
         <v>327.60000000000002</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>19.488817891373785</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>23</v>
       </c>
@@ -1256,77 +1284,77 @@
         <v>42956</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="23"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="21">
         <v>4</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <v>645</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1697.3684210526314</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.84868421052631571</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.66792996690509221</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="30">
         <v>443.7</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="30">
         <v>349.2</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.298174442190671</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="26">
         <f>AVERAGE(G24:G27)</f>
         <v>1581.5789473684213</v>
       </c>
-      <c r="H28" s="29">
+      <c r="H28" s="27">
         <f>AVERAGE(H24:H27)</f>
         <v>0.79078947368421049</v>
       </c>
-      <c r="I28" s="29">
+      <c r="I28" s="27">
         <f>AVERAGE(I24:I27)</f>
         <v>0.6282045128923035</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="30"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="30"/>
-      <c r="E30" s="34" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="E30" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-    </row>
-    <row r="31" spans="1:12" ht="24.6" thickBot="1">
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+    </row>
+    <row r="31" spans="1:12" ht="28" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -1360,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1394,7 +1422,7 @@
         <v>14.994165694282387</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>14</v>
       </c>
@@ -1410,15 +1438,15 @@
         <v>370</v>
       </c>
       <c r="G33" s="13">
-        <f t="shared" ref="G33:G35" si="12">F33/0.38</f>
+        <f t="shared" ref="G33:G35" si="13">F33/0.38</f>
         <v>973.68421052631572</v>
       </c>
       <c r="H33" s="14">
-        <f t="shared" ref="H33:H35" si="13">G33/2000</f>
+        <f t="shared" ref="H33:H35" si="14">G33/2000</f>
         <v>0.48684210526315785</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" ref="I33:I35" si="14">H33-(H33*L33/100)</f>
+        <f t="shared" ref="I33:I35" si="15">H33-(H33*L33/100)</f>
         <v>0.38853028798411121</v>
       </c>
       <c r="J33" s="16">
@@ -1428,11 +1456,11 @@
         <v>313</v>
       </c>
       <c r="L33" s="18">
-        <f t="shared" ref="L33:L35" si="15">100-K33/J33*100</f>
+        <f t="shared" ref="L33:L35" si="16">100-K33/J33*100</f>
         <v>20.193778684344721</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>22</v>
       </c>
@@ -1448,15 +1476,15 @@
         <v>366</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>963.15789473684208</v>
       </c>
       <c r="H34" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.48157894736842105</v>
       </c>
       <c r="I34" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.41118440638661258</v>
       </c>
       <c r="J34" s="16">
@@ -1466,11 +1494,11 @@
         <v>286.8</v>
       </c>
       <c r="L34" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14.617445668353668</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>16</v>
       </c>
@@ -1478,7 +1506,7 @@
         <v>42991</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="21">
         <v>4</v>
       </c>
@@ -1486,15 +1514,15 @@
         <v>420</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1105.2631578947369</v>
       </c>
       <c r="H35" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.55263157894736847</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.44625844172218931</v>
       </c>
       <c r="J35" s="16">
@@ -1504,28 +1532,28 @@
         <v>300</v>
       </c>
       <c r="L35" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.248472450270512</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="25"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="26">
         <f>AVERAGE(G32:G35)</f>
         <v>1048.0263157894738</v>
       </c>
-      <c r="H36" s="29">
+      <c r="H36" s="27">
         <f>AVERAGE(H32:H35)</f>
         <v>0.52401315789473679</v>
       </c>
-      <c r="I36" s="29">
+      <c r="I36" s="27">
         <f>AVERAGE(I32:I35)</f>
         <v>0.43368917083769731</v>
       </c>
